--- a/Schematics SSD1325 OLED.xlsx
+++ b/Schematics SSD1325 OLED.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Schematic" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="128">
   <si>
     <t>PIC18F67J10</t>
   </si>
@@ -147,9 +145,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>CS-Mem</t>
-  </si>
-  <si>
     <t>CS-OLED</t>
   </si>
   <si>
@@ -301,13 +296,115 @@
   </si>
   <si>
     <t>ICSP</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>DC#</t>
+  </si>
+  <si>
+    <t>RES#</t>
+  </si>
+  <si>
+    <t>CS#</t>
+  </si>
+  <si>
+    <t>BS2</t>
+  </si>
+  <si>
+    <t>BS1</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Iref</t>
+  </si>
+  <si>
+    <t>Vcomh</t>
+  </si>
+  <si>
+    <t>E/RD#</t>
+  </si>
+  <si>
+    <t>R/W#</t>
+  </si>
+  <si>
+    <t>VSL</t>
+  </si>
+  <si>
+    <t>OLED FFC Connector</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>45PE80VG</t>
+  </si>
+  <si>
+    <t>1MB Serial Flash</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SCK2</t>
+  </si>
+  <si>
+    <t>CS-MEM</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>SCK1</t>
+  </si>
+  <si>
+    <t>SDI1</t>
+  </si>
+  <si>
+    <t>OLED Vcc 12v</t>
+  </si>
+  <si>
+    <t>Connector Layout</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Chassis Gnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +457,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +538,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -612,11 +728,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -636,20 +841,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,13 +863,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -673,11 +875,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -691,7 +893,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -709,17 +911,88 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="AU26" sqref="AU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1028,9 +1301,19 @@
     <col min="3" max="13" width="3" customWidth="1"/>
     <col min="14" max="14" width="4.42578125" customWidth="1"/>
     <col min="18" max="35" width="4.5703125" customWidth="1"/>
+    <col min="38" max="39" width="2.85546875" customWidth="1"/>
+    <col min="40" max="40" width="7" customWidth="1"/>
+    <col min="41" max="41" width="5.7109375" customWidth="1"/>
+    <col min="42" max="43" width="2.85546875" customWidth="1"/>
+    <col min="44" max="44" width="3" customWidth="1"/>
+    <col min="45" max="45" width="2.85546875" customWidth="1"/>
+    <col min="46" max="46" width="3.28515625" customWidth="1"/>
+    <col min="47" max="47" width="5.42578125" customWidth="1"/>
+    <col min="48" max="48" width="8.28515625" customWidth="1"/>
+    <col min="49" max="54" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:48">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1070,14 +1353,16 @@
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:48">
       <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1110,40 +1395,92 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
     </row>
-    <row r="3" spans="1:38" ht="47.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:48" ht="47.25" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
-        <v>82</v>
+      <c r="C3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="18"/>
@@ -1152,149 +1489,207 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="18"/>
     </row>
-    <row r="4" spans="1:38" ht="16.5" thickBot="1">
+    <row r="4" spans="1:48" ht="16.5" thickBot="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>3</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>4</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>5</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>6</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>7</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>8</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>9</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>10</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>11</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>12</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>13</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="22">
         <v>14</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>15</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="22">
         <v>16</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>17</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="22">
         <v>18</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="21">
         <v>19</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="22">
         <v>20</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="21">
         <v>21</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="22">
         <v>22</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <v>23</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="22">
         <v>24</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="21">
         <v>25</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="22">
         <v>26</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4" s="21">
         <v>27</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="22">
         <v>28</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="21">
         <v>29</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="22">
         <v>30</v>
       </c>
-      <c r="AG4" s="24"/>
+      <c r="AG4" s="23"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
     </row>
-    <row r="5" spans="1:38" ht="49.5" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="18"/>
+    <row r="5" spans="1:48" ht="49.5" customHeight="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF5" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="69"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
     </row>
-    <row r="6" spans="1:38" ht="22.5" customHeight="1">
+    <row r="6" spans="1:48" ht="22.5" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1334,7 +1729,7 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="18"/>
     </row>
-    <row r="7" spans="1:38" ht="22.5" customHeight="1">
+    <row r="7" spans="1:48" ht="22.5" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1371,19 +1766,19 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="18"/>
     </row>
-    <row r="8" spans="1:38" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:48" ht="37.5" customHeight="1" thickBot="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="E8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1392,52 +1787,52 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="V8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="27" t="s">
+      <c r="Z8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="27" t="s">
+      <c r="AB8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="72" t="s">
+      <c r="AE8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AF8" s="73" t="s">
+      <c r="AF8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="72" t="s">
+      <c r="AG8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AH8" s="27" t="s">
+      <c r="AH8" s="26" t="s">
         <v>16</v>
       </c>
       <c r="AI8" s="18"/>
@@ -1445,13 +1840,13 @@
       <c r="AK8" s="18"/>
       <c r="AL8" s="18"/>
     </row>
-    <row r="9" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="18"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1459,7 +1854,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1467,61 +1862,66 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="73"/>
+      <c r="S9" s="27">
         <v>64</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="28">
         <v>63</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="27">
         <v>62</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="28">
         <v>61</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="27">
         <v>60</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="28">
         <v>59</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="27">
         <v>58</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="28">
         <v>57</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="27">
         <v>56</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AB9" s="28">
         <v>55</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="27">
         <v>54</v>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="28">
         <v>53</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="27">
         <v>52</v>
       </c>
-      <c r="AF9" s="30">
+      <c r="AF9" s="28">
         <v>51</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="27">
         <v>50</v>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH9" s="28">
         <v>49</v>
       </c>
-      <c r="AI9" s="31"/>
+      <c r="AI9" s="29"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="18"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="85"/>
     </row>
-    <row r="10" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1538,95 +1938,139 @@
       <c r="N10" s="10"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="31">
         <v>1</v>
       </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="34"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="74"/>
       <c r="AI10" s="1">
         <v>48</v>
       </c>
-      <c r="AJ10" s="68" t="s">
+      <c r="AJ10" s="65" t="s">
         <v>17</v>
       </c>
       <c r="AK10" s="18"/>
       <c r="AL10" s="18"/>
+      <c r="AN10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO10" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP10" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="91">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A11" s="18"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="34">
         <v>2</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
       <c r="AI11" s="2">
         <v>47</v>
       </c>
-      <c r="AJ11" s="69" t="s">
+      <c r="AJ11" s="66" t="s">
         <v>18</v>
       </c>
       <c r="AK11" s="18"/>
       <c r="AL11" s="18"/>
+      <c r="AN11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO11" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP11" s="94">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="93">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:48" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="9"/>
@@ -1640,44 +2084,65 @@
       <c r="L12" s="9"/>
       <c r="M12" s="17"/>
       <c r="N12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="31">
         <v>3</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
       <c r="AI12" s="1">
         <v>46</v>
       </c>
-      <c r="AJ12" s="68" t="s">
+      <c r="AJ12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="AK12" s="18"/>
       <c r="AL12" s="18"/>
+      <c r="AN12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO12" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP12" s="92">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="96"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="91">
+        <v>6</v>
+      </c>
+      <c r="AU12" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="22.5" customHeight="1">
+    <row r="13" spans="1:48" ht="22.5" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1694,40 +2159,61 @@
       <c r="N13" s="10"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="34">
         <v>4</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
       <c r="AI13" s="2">
         <v>45</v>
       </c>
-      <c r="AJ13" s="69" t="s">
+      <c r="AJ13" s="66" t="s">
         <v>20</v>
       </c>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
+      <c r="AN13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO13" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" s="94">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="96"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="93">
+        <v>5</v>
+      </c>
+      <c r="AU13" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A14" s="18"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1744,90 +2230,102 @@
       <c r="N14" s="10"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31">
         <v>5</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
       <c r="AI14" s="1">
         <v>44</v>
       </c>
-      <c r="AJ14" s="68" t="s">
+      <c r="AJ14" s="65" t="s">
         <v>21</v>
       </c>
       <c r="AK14" s="18"/>
       <c r="AL14" s="18"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="89"/>
     </row>
-    <row r="15" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="18"/>
       <c r="B15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="E15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="9"/>
       <c r="M15" s="17"/>
       <c r="N15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34">
         <v>6</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
       <c r="AI15" s="2">
         <v>43</v>
       </c>
-      <c r="AJ15" s="69"/>
+      <c r="AJ15" s="66"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="18"/>
+      <c r="AP15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
     </row>
-    <row r="16" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1846,40 +2344,45 @@
       <c r="P16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="31">
         <v>7</v>
       </c>
-      <c r="S16" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AH16" s="74" t="s">
-        <v>94</v>
+      <c r="S16" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="AI16" s="1">
         <v>42</v>
       </c>
-      <c r="AJ16" s="68" t="s">
+      <c r="AJ16" s="65" t="s">
         <v>22</v>
       </c>
       <c r="AL16" s="18"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
     </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A17" s="18"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1896,48 +2399,51 @@
       <c r="N17" s="10"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="34">
         <v>8</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34" t="s">
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
       <c r="AI17" s="2">
         <v>41</v>
       </c>
-      <c r="AJ17" s="69" t="s">
+      <c r="AJ17" s="66" t="s">
         <v>10</v>
       </c>
       <c r="AK17" s="18"/>
       <c r="AL17" s="18"/>
+      <c r="AW17" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A18" s="18"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1945,7 +2451,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1954,32 +2460,32 @@
       <c r="P18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="31">
         <v>9</v>
       </c>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
       <c r="AI18" s="1">
         <v>40</v>
       </c>
-      <c r="AJ18" s="68" t="s">
+      <c r="AJ18" s="65" t="s">
         <v>24</v>
       </c>
       <c r="AK18" s="18" t="s">
@@ -1987,7 +2493,7 @@
       </c>
       <c r="AL18" s="18"/>
     </row>
-    <row r="19" spans="1:38" ht="22.5" customHeight="1">
+    <row r="19" spans="1:54" ht="22.5" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -2004,42 +2510,58 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="34">
         <v>10</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
       <c r="AI19" s="2">
         <v>39</v>
       </c>
-      <c r="AJ19" s="69" t="s">
+      <c r="AJ19" s="66" t="s">
         <v>25</v>
       </c>
       <c r="AK19" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AL19" s="18"/>
+      <c r="AO19" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="110"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="99"/>
     </row>
-    <row r="20" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2056,249 +2578,359 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="31">
         <v>11</v>
       </c>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
       <c r="AI20" s="1">
         <v>38</v>
       </c>
-      <c r="AJ20" s="68" t="s">
+      <c r="AJ20" s="65" t="s">
         <v>9</v>
       </c>
       <c r="AK20" s="18"/>
       <c r="AL20" s="18"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="101"/>
+      <c r="AQ20" s="101"/>
+      <c r="AR20" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="101"/>
+      <c r="AU20" s="101"/>
+      <c r="AV20" s="101"/>
+      <c r="AW20" s="102"/>
+      <c r="AX20" s="102"/>
+      <c r="AY20" s="102"/>
+      <c r="AZ20" s="101"/>
+      <c r="BA20" s="101"/>
+      <c r="BB20" s="103"/>
     </row>
-    <row r="21" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="41" t="s">
-        <v>76</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="34">
         <v>12</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="74" t="s">
-        <v>94</v>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="AI21" s="2">
         <v>37</v>
       </c>
-      <c r="AJ21" s="69" t="s">
+      <c r="AJ21" s="66" t="s">
         <v>27</v>
       </c>
       <c r="AL21" s="18"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="101"/>
+      <c r="AQ21" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR21" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS21" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT21" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU21" s="101"/>
+      <c r="AV21" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW21" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX21" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY21" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ21" s="101"/>
+      <c r="BA21" s="101"/>
+      <c r="BB21" s="103"/>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31">
         <v>13</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="71"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="82" t="s">
+        <v>109</v>
+      </c>
       <c r="AI22" s="1">
         <v>36</v>
       </c>
-      <c r="AJ22" s="68" t="s">
+      <c r="AJ22" s="65" t="s">
         <v>28</v>
       </c>
       <c r="AK22" s="18"/>
       <c r="AL22" s="18"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="101"/>
+      <c r="AR22" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS22" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT22" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU22" s="101"/>
+      <c r="AV22" s="101"/>
+      <c r="AW22" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX22" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY22" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ22" s="101"/>
+      <c r="BA22" s="101"/>
+      <c r="BB22" s="103"/>
     </row>
-    <row r="23" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="23" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="41" t="s">
-        <v>77</v>
+      <c r="D23" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="37">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="R23" s="34">
         <v>14</v>
       </c>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="70"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="80"/>
       <c r="AI23" s="2">
         <v>35</v>
       </c>
-      <c r="AJ23" s="69" t="s">
+      <c r="AJ23" s="66" t="s">
         <v>29</v>
       </c>
+      <c r="AK23" t="s">
+        <v>42</v>
+      </c>
       <c r="AL23" s="18"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="101"/>
+      <c r="AQ23" s="101"/>
+      <c r="AR23" s="101"/>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="101"/>
+      <c r="AU23" s="101"/>
+      <c r="AV23" s="101"/>
+      <c r="AW23" s="102"/>
+      <c r="AX23" s="102"/>
+      <c r="AY23" s="102"/>
+      <c r="AZ23" s="101"/>
+      <c r="BA23" s="101"/>
+      <c r="BB23" s="103"/>
     </row>
-    <row r="24" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="33">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="31">
         <v>15</v>
       </c>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="70"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="81"/>
       <c r="AI24" s="1">
         <v>34</v>
       </c>
-      <c r="AJ24" s="68" t="s">
+      <c r="AJ24" s="65" t="s">
         <v>30</v>
       </c>
+      <c r="AK24" t="s">
+        <v>42</v>
+      </c>
       <c r="AL24" s="18"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="101"/>
+      <c r="AU24" s="101"/>
+      <c r="AV24" s="101"/>
+      <c r="AW24" s="101"/>
+      <c r="AX24" s="101"/>
+      <c r="AY24" s="102"/>
+      <c r="AZ24" s="102"/>
+      <c r="BA24" s="102"/>
+      <c r="BB24" s="103"/>
     </row>
-    <row r="25" spans="1:38" ht="22.5" customHeight="1">
+    <row r="25" spans="1:54" ht="22.5" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2315,40 +2947,70 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="R25" s="37">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="34">
         <v>16</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
       <c r="AI25" s="2">
         <v>33</v>
       </c>
-      <c r="AJ25" s="69" t="s">
+      <c r="AJ25" s="66" t="s">
         <v>31</v>
       </c>
       <c r="AK25" s="18"/>
       <c r="AL25" s="18"/>
+      <c r="AO25" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP25" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ25" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR25" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="101"/>
+      <c r="AU25" s="101"/>
+      <c r="AV25" s="101"/>
+      <c r="AW25" s="101"/>
+      <c r="AX25" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY25" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ25" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA25" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB25" s="103"/>
     </row>
-    <row r="26" spans="1:38" ht="22.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2365,8 +3027,8 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
       <c r="S26" s="3">
         <v>17</v>
       </c>
@@ -2415,12 +3077,34 @@
       <c r="AH26" s="4">
         <v>32</v>
       </c>
-      <c r="AI26" s="64"/>
+      <c r="AI26" s="61"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="18"/>
       <c r="AL26" s="18"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="101"/>
+      <c r="AU26" s="101"/>
+      <c r="AV26" s="101"/>
+      <c r="AW26" s="101"/>
+      <c r="AX26" s="101"/>
+      <c r="AY26" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ26" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA26" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB26" s="103"/>
     </row>
-    <row r="27" spans="1:38" ht="48.75" customHeight="1">
+    <row r="27" spans="1:54" ht="48.75" customHeight="1" thickBot="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2438,59 +3122,75 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="66" t="s">
+      <c r="R27" s="62"/>
+      <c r="S27" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="67" t="s">
+      <c r="T27" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="66" t="s">
+      <c r="U27" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="67" t="s">
+      <c r="V27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="66" t="s">
+      <c r="W27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X27" s="67" t="s">
+      <c r="X27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" s="66" t="s">
+      <c r="Y27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="67" t="s">
+      <c r="Z27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AA27" s="66" t="s">
+      <c r="AA27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AB27" s="67" t="s">
+      <c r="AB27" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AC27" s="66" t="s">
+      <c r="AC27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="66" t="s">
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AF27" s="67" t="s">
+      <c r="AF27" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AG27" s="66" t="s">
+      <c r="AG27" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="AH27" s="67" t="s">
+      <c r="AH27" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AI27" s="65"/>
+      <c r="AI27" s="62"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="18"/>
+      <c r="AO27" s="106"/>
+      <c r="AP27" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="108"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="108"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="107"/>
+      <c r="AZ27" s="107"/>
+      <c r="BA27" s="107"/>
+      <c r="BB27" s="109"/>
     </row>
-    <row r="28" spans="1:38" ht="51" customHeight="1">
+    <row r="28" spans="1:54" ht="51" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2509,63 +3209,63 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="65" t="s">
+      <c r="S28" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="T28" s="65" t="s">
+      <c r="U28" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="U28" s="65" t="s">
+      <c r="V28" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="V28" s="65" t="s">
+      <c r="W28" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="W28" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="X28" s="65" t="s">
+      <c r="X28" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Y28" s="65" t="s">
+      <c r="Z28" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="65" t="s">
+      <c r="AA28" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AA28" s="65" t="s">
+      <c r="AB28" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="AB28" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC28" s="65" t="s">
+      <c r="AD28" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="AD28" s="65" t="s">
+      <c r="AE28" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AE28" s="65" t="s">
+      <c r="AF28" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="AF28" s="65" t="s">
+      <c r="AG28" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="AG28" s="65" t="s">
+      <c r="AH28" s="62" t="s">
         <v>91</v>
-      </c>
-      <c r="AH28" s="65" t="s">
-        <v>92</v>
       </c>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
       <c r="AK28" s="18"/>
       <c r="AL28" s="18"/>
     </row>
-    <row r="29" spans="1:38" ht="22.5" customHeight="1"/>
-    <row r="30" spans="1:38" ht="22.5" customHeight="1"/>
-    <row r="31" spans="1:38" ht="22.5" customHeight="1"/>
-    <row r="32" spans="1:38" ht="22.5" customHeight="1"/>
+    <row r="29" spans="1:54" ht="22.5" customHeight="1"/>
+    <row r="30" spans="1:54" ht="22.5" customHeight="1"/>
+    <row r="31" spans="1:54" ht="22.5" customHeight="1"/>
+    <row r="32" spans="1:54" ht="22.5" customHeight="1"/>
     <row r="33" ht="22.5" customHeight="1"/>
     <row r="34" ht="22.5" customHeight="1"/>
     <row r="35" ht="22.5" customHeight="1"/>
@@ -2573,31 +3273,12 @@
     <row r="37" ht="22.5" customHeight="1"/>
     <row r="38" ht="22.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AR10:AR13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Schematics SSD1325 OLED.xlsx
+++ b/Schematics SSD1325 OLED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>PIC18F67J10</t>
   </si>
@@ -465,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +556,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -821,24 +827,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,12 +863,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -933,6 +924,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,58 +940,68 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AU26" sqref="AU26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,682 +1322,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="18"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:48" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="70" t="s">
+      <c r="X3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="70" t="s">
+      <c r="Y3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Z3" s="70" t="s">
+      <c r="Z3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="70" t="s">
+      <c r="AA3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="70" t="s">
+      <c r="AB3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="70" t="s">
+      <c r="AC3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" s="70" t="s">
+      <c r="AD3" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:48" ht="16.5" thickBot="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="11">
         <v>6</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="10">
         <v>7</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="11">
         <v>8</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="10">
         <v>9</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="11">
         <v>10</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="10">
         <v>11</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="11">
         <v>12</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="10">
         <v>13</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="11">
         <v>14</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="10">
         <v>15</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="11">
         <v>16</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="10">
         <v>17</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="11">
         <v>18</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="10">
         <v>19</v>
       </c>
-      <c r="V4" s="22">
+      <c r="V4" s="11">
         <v>20</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="10">
         <v>21</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="11">
         <v>22</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="10">
         <v>23</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="11">
         <v>24</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="10">
         <v>25</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AB4" s="11">
         <v>26</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="10">
         <v>27</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AD4" s="11">
         <v>28</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="10">
         <v>29</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="11">
         <v>30</v>
       </c>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:48" ht="49.5" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="70" t="s">
+      <c r="R5" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="70" t="s">
+      <c r="T5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="70" t="s">
+      <c r="V5" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="70" t="s">
+      <c r="W5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="X5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="70" t="s">
+      <c r="Y5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="70" t="s">
+      <c r="Z5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AA5" s="70" t="s">
+      <c r="AA5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" s="70" t="s">
+      <c r="AB5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" s="70" t="s">
+      <c r="AC5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AD5" s="70" t="s">
+      <c r="AD5" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AE5" s="70" t="s">
+      <c r="AE5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="70" t="s">
+      <c r="AF5" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:48" ht="22.5" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:48" ht="22.5" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:48" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="24" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="25" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="X8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="25" t="s">
+      <c r="Y8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AC8" s="25" t="s">
+      <c r="AC8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AD8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="67" t="s">
+      <c r="AE8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AF8" s="68" t="s">
+      <c r="AF8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="67" t="s">
+      <c r="AG8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AH8" s="26" t="s">
+      <c r="AH8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
     </row>
     <row r="9" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="27">
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="16">
         <v>64</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="17">
         <v>63</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="16">
         <v>62</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="17">
         <v>61</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="16">
         <v>60</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="17">
         <v>59</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="16">
         <v>58</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="Z9" s="17">
         <v>57</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="16">
         <v>56</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="17">
         <v>55</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AC9" s="16">
         <v>54</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AD9" s="17">
         <v>53</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="16">
         <v>52</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AF9" s="17">
         <v>51</v>
       </c>
-      <c r="AG9" s="27">
+      <c r="AG9" s="16">
         <v>50</v>
       </c>
-      <c r="AH9" s="28">
+      <c r="AH9" s="17">
         <v>49</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="85"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="109"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="109"/>
+      <c r="AT9" s="112"/>
     </row>
     <row r="10" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="20">
         <v>1</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="77" t="s">
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="74"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="59"/>
       <c r="AI10" s="1">
         <v>48</v>
       </c>
-      <c r="AJ10" s="65" t="s">
+      <c r="AJ10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
       <c r="AN10" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="91" t="s">
+      <c r="AO10" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AP10" s="92">
+      <c r="AP10" s="66">
         <v>1</v>
       </c>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="95" t="s">
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="91">
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="65">
         <v>8</v>
       </c>
-      <c r="AU10" s="92" t="s">
+      <c r="AU10" s="66" t="s">
         <v>116</v>
       </c>
       <c r="AV10" t="s">
@@ -1997,70 +2005,70 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="22">
         <v>2</v>
       </c>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
       <c r="AI11" s="2">
         <v>47</v>
       </c>
-      <c r="AJ11" s="66" t="s">
+      <c r="AJ11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
       <c r="AN11" t="s">
         <v>117</v>
       </c>
-      <c r="AO11" s="93" t="s">
+      <c r="AO11" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AP11" s="94">
+      <c r="AP11" s="68">
         <v>2</v>
       </c>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="93">
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="67">
         <v>7</v>
       </c>
-      <c r="AU11" s="94" t="s">
+      <c r="AU11" s="68" t="s">
         <v>23</v>
       </c>
       <c r="AV11" t="s">
@@ -2068,74 +2076,74 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="10" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="20">
         <v>3</v>
       </c>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
       <c r="AI12" s="1">
         <v>46</v>
       </c>
-      <c r="AJ12" s="65" t="s">
+      <c r="AJ12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
       <c r="AN12" t="s">
         <v>32</v>
       </c>
-      <c r="AO12" s="91" t="s">
+      <c r="AO12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AP12" s="92">
+      <c r="AP12" s="66">
         <v>3</v>
       </c>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="91">
+      <c r="AQ12" s="110"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="110"/>
+      <c r="AT12" s="65">
         <v>6</v>
       </c>
-      <c r="AU12" s="92" t="s">
+      <c r="AU12" s="66" t="s">
         <v>9</v>
       </c>
       <c r="AV12" t="s">
@@ -2143,70 +2151,70 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="22.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="22">
         <v>4</v>
       </c>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
       <c r="AI13" s="2">
         <v>45</v>
       </c>
-      <c r="AJ13" s="66" t="s">
+      <c r="AJ13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
       <c r="AN13" t="s">
         <v>118</v>
       </c>
-      <c r="AO13" s="93" t="s">
+      <c r="AO13" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AP13" s="94">
+      <c r="AP13" s="68">
         <v>4</v>
       </c>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="93">
+      <c r="AQ13" s="110"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="110"/>
+      <c r="AT13" s="67">
         <v>5</v>
       </c>
-      <c r="AU13" s="94" t="s">
+      <c r="AU13" s="68" t="s">
         <v>115</v>
       </c>
       <c r="AV13" t="s">
@@ -2214,821 +2222,823 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20">
         <v>5</v>
       </c>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
       <c r="AI14" s="1">
         <v>44</v>
       </c>
-      <c r="AJ14" s="65" t="s">
+      <c r="AJ14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="89"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="63"/>
     </row>
     <row r="15" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="35" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="10" t="s">
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22">
         <v>6</v>
       </c>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
       <c r="AI15" s="2">
         <v>43</v>
       </c>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AP15" s="24" t="s">
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AP15" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
     </row>
     <row r="16" spans="1:48" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="20">
         <v>7</v>
       </c>
-      <c r="S16" s="76" t="s">
+      <c r="S16" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="76" t="s">
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="61" t="s">
         <v>93</v>
       </c>
       <c r="AI16" s="1">
         <v>42</v>
       </c>
-      <c r="AJ16" s="65" t="s">
+      <c r="AJ16" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AL16" s="18"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
+      <c r="AL16" s="7"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
     </row>
     <row r="17" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="22">
         <v>8</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74" t="s">
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
       <c r="AI17" s="2">
         <v>41</v>
       </c>
-      <c r="AJ17" s="66" t="s">
+      <c r="AJ17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
       <c r="AW17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="31">
+      <c r="R18" s="20">
         <v>9</v>
       </c>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
       <c r="AI18" s="1">
         <v>40</v>
       </c>
-      <c r="AJ18" s="65" t="s">
+      <c r="AJ18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AK18" s="18" t="s">
+      <c r="AK18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL18" s="18"/>
+      <c r="AL18" s="7"/>
     </row>
     <row r="19" spans="1:54" ht="22.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="22">
         <v>10</v>
       </c>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
       <c r="AI19" s="2">
         <v>39</v>
       </c>
-      <c r="AJ19" s="66" t="s">
+      <c r="AJ19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AK19" s="18" t="s">
+      <c r="AK19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL19" s="18"/>
-      <c r="AO19" s="97" t="s">
+      <c r="AL19" s="7"/>
+      <c r="AO19" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="98"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="98"/>
-      <c r="AW19" s="98"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="98"/>
-      <c r="AZ19" s="98"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="99"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="78"/>
     </row>
     <row r="20" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="30" t="s">
+      <c r="Q20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="20">
         <v>11</v>
       </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
       <c r="AI20" s="1">
         <v>38</v>
       </c>
-      <c r="AJ20" s="65" t="s">
+      <c r="AJ20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="101"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="101" t="s">
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="80"/>
+      <c r="AQ20" s="80"/>
+      <c r="AR20" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="AS20" s="101"/>
-      <c r="AT20" s="101"/>
-      <c r="AU20" s="101"/>
-      <c r="AV20" s="101"/>
-      <c r="AW20" s="102"/>
-      <c r="AX20" s="102"/>
-      <c r="AY20" s="102"/>
-      <c r="AZ20" s="101"/>
-      <c r="BA20" s="101"/>
-      <c r="BB20" s="103"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="80"/>
+      <c r="AV20" s="80"/>
+      <c r="AW20" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX20" s="115"/>
+      <c r="AY20" s="115"/>
+      <c r="AZ20" s="80"/>
+      <c r="BA20" s="80"/>
+      <c r="BB20" s="82"/>
     </row>
     <row r="21" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="38" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="22">
         <v>12</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="76" t="s">
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="61" t="s">
         <v>93</v>
       </c>
       <c r="AI21" s="2">
         <v>37</v>
       </c>
-      <c r="AJ21" s="66" t="s">
+      <c r="AJ21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AL21" s="18"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="101"/>
-      <c r="AQ21" s="112" t="s">
+      <c r="AL21" s="7"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="AR21" s="104" t="s">
+      <c r="AR21" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AS21" s="104" t="s">
+      <c r="AS21" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AT21" s="104" t="s">
+      <c r="AT21" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AU21" s="101"/>
-      <c r="AV21" s="113" t="s">
+      <c r="AU21" s="80"/>
+      <c r="AV21" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="AW21" s="105" t="s">
+      <c r="AW21" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AX21" s="105" t="s">
+      <c r="AX21" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AY21" s="105" t="s">
+      <c r="AY21" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AZ21" s="101"/>
-      <c r="BA21" s="101"/>
-      <c r="BB21" s="103"/>
+      <c r="AZ21" s="80"/>
+      <c r="BA21" s="80"/>
+      <c r="BB21" s="82"/>
     </row>
     <row r="22" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20">
         <v>13</v>
       </c>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="82" t="s">
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="72" t="s">
         <v>109</v>
       </c>
       <c r="AI22" s="1">
         <v>36</v>
       </c>
-      <c r="AJ22" s="65" t="s">
+      <c r="AJ22" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AO22" s="100"/>
-      <c r="AP22" s="101"/>
-      <c r="AQ22" s="101"/>
-      <c r="AR22" s="104" t="s">
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AS22" s="104" t="s">
+      <c r="AS22" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AT22" s="104" t="s">
+      <c r="AT22" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="AU22" s="101"/>
-      <c r="AV22" s="101"/>
-      <c r="AW22" s="105" t="s">
+      <c r="AU22" s="80"/>
+      <c r="AV22" s="80"/>
+      <c r="AW22" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AX22" s="105" t="s">
+      <c r="AX22" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AY22" s="105" t="s">
+      <c r="AY22" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AZ22" s="101"/>
-      <c r="BA22" s="101"/>
-      <c r="BB22" s="103"/>
+      <c r="AZ22" s="80"/>
+      <c r="BA22" s="80"/>
+      <c r="BB22" s="82"/>
     </row>
     <row r="23" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="50" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="52" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="38" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q23" s="93" t="s">
+      <c r="Q23" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="22">
         <v>14</v>
       </c>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="80"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="73"/>
       <c r="AI23" s="2">
         <v>35</v>
       </c>
-      <c r="AJ23" s="66" t="s">
+      <c r="AJ23" s="51" t="s">
         <v>29</v>
       </c>
       <c r="AK23" t="s">
         <v>42</v>
       </c>
-      <c r="AL23" s="18"/>
-      <c r="AO23" s="100"/>
-      <c r="AP23" s="101"/>
-      <c r="AQ23" s="101"/>
-      <c r="AR23" s="101"/>
-      <c r="AS23" s="101"/>
-      <c r="AT23" s="101"/>
-      <c r="AU23" s="101"/>
-      <c r="AV23" s="101"/>
-      <c r="AW23" s="102"/>
-      <c r="AX23" s="102"/>
-      <c r="AY23" s="102"/>
-      <c r="AZ23" s="101"/>
-      <c r="BA23" s="101"/>
-      <c r="BB23" s="103"/>
+      <c r="AL23" s="7"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="80"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="81"/>
+      <c r="AX23" s="81"/>
+      <c r="AY23" s="81"/>
+      <c r="AZ23" s="80"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="82"/>
     </row>
     <row r="24" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q24" s="30" t="s">
+      <c r="Q24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="31">
+      <c r="R24" s="20">
         <v>15</v>
       </c>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="81"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="74"/>
       <c r="AI24" s="1">
         <v>34</v>
       </c>
-      <c r="AJ24" s="65" t="s">
+      <c r="AJ24" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AK24" t="s">
         <v>42</v>
       </c>
-      <c r="AL24" s="18"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102" t="s">
+      <c r="AL24" s="7"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="101"/>
-      <c r="AU24" s="101"/>
-      <c r="AV24" s="101"/>
-      <c r="AW24" s="101"/>
-      <c r="AX24" s="101"/>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102"/>
-      <c r="BB24" s="103"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="80"/>
+      <c r="AT24" s="80"/>
+      <c r="AU24" s="80"/>
+      <c r="AV24" s="80"/>
+      <c r="AW24" s="80"/>
+      <c r="AX24" s="80"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="81"/>
+      <c r="BA24" s="81"/>
+      <c r="BB24" s="82"/>
     </row>
     <row r="25" spans="1:54" ht="22.5" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="33" t="s">
+      <c r="Q25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="22">
         <v>16</v>
       </c>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
       <c r="AI25" s="2">
         <v>33</v>
       </c>
-      <c r="AJ25" s="66" t="s">
+      <c r="AJ25" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AO25" s="111" t="s">
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AO25" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="AP25" s="105" t="s">
+      <c r="AP25" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AQ25" s="105" t="s">
+      <c r="AQ25" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="AR25" s="105" t="s">
+      <c r="AR25" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="101"/>
-      <c r="AU25" s="101"/>
-      <c r="AV25" s="101"/>
-      <c r="AW25" s="101"/>
-      <c r="AX25" s="112" t="s">
+      <c r="AS25" s="80"/>
+      <c r="AT25" s="80"/>
+      <c r="AU25" s="80"/>
+      <c r="AV25" s="80"/>
+      <c r="AW25" s="80"/>
+      <c r="AX25" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AY25" s="105" t="s">
+      <c r="AY25" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="AZ25" s="105" t="s">
+      <c r="AZ25" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="BA25" s="105" t="s">
+      <c r="BA25" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="BB25" s="103"/>
+      <c r="BB25" s="82"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="3">
         <v>17</v>
       </c>
@@ -3077,190 +3087,190 @@
       <c r="AH26" s="4">
         <v>32</v>
       </c>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="105" t="s">
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="AQ26" s="105"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="101"/>
-      <c r="AT26" s="101"/>
-      <c r="AU26" s="101"/>
-      <c r="AV26" s="101"/>
-      <c r="AW26" s="101"/>
-      <c r="AX26" s="101"/>
-      <c r="AY26" s="105" t="s">
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="AZ26" s="105" t="s">
+      <c r="AZ26" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="BA26" s="105" t="s">
+      <c r="BA26" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="BB26" s="103"/>
+      <c r="BB26" s="82"/>
     </row>
     <row r="27" spans="1:54" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="63" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="64" t="s">
+      <c r="T27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="U27" s="63" t="s">
+      <c r="U27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="W27" s="63" t="s">
+      <c r="W27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="X27" s="64" t="s">
+      <c r="X27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" s="63" t="s">
+      <c r="Y27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="64" t="s">
+      <c r="Z27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AA27" s="63" t="s">
+      <c r="AA27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AB27" s="64" t="s">
+      <c r="AB27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AC27" s="63" t="s">
+      <c r="AC27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="63" t="s">
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AF27" s="64" t="s">
+      <c r="AF27" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AG27" s="63" t="s">
+      <c r="AG27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AH27" s="64" t="s">
+      <c r="AH27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AO27" s="106"/>
-      <c r="AP27" s="107" t="s">
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AO27" s="88"/>
+      <c r="AP27" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="AQ27" s="107"/>
-      <c r="AR27" s="107"/>
-      <c r="AS27" s="108"/>
-      <c r="AT27" s="108"/>
-      <c r="AU27" s="108"/>
-      <c r="AV27" s="108"/>
-      <c r="AW27" s="108"/>
-      <c r="AX27" s="108"/>
-      <c r="AY27" s="107"/>
-      <c r="AZ27" s="107"/>
-      <c r="BA27" s="107"/>
-      <c r="BB27" s="109"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="89"/>
+      <c r="AZ27" s="89"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="91"/>
     </row>
     <row r="28" spans="1:54" ht="51" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="62" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="T28" s="62" t="s">
+      <c r="T28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="U28" s="62" t="s">
+      <c r="U28" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="62" t="s">
+      <c r="V28" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="W28" s="62" t="s">
+      <c r="W28" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="X28" s="62" t="s">
+      <c r="X28" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="Y28" s="62" t="s">
+      <c r="Y28" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="Z28" s="62" t="s">
+      <c r="Z28" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AA28" s="62" t="s">
+      <c r="AA28" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AB28" s="62" t="s">
+      <c r="AB28" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AC28" s="62" t="s">
+      <c r="AC28" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AD28" s="62" t="s">
+      <c r="AD28" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AE28" s="62" t="s">
+      <c r="AE28" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AF28" s="62" t="s">
+      <c r="AF28" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AG28" s="62" t="s">
+      <c r="AG28" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AH28" s="62" t="s">
+      <c r="AH28" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
     </row>
     <row r="29" spans="1:54" ht="22.5" customHeight="1"/>
     <row r="30" spans="1:54" ht="22.5" customHeight="1"/>
